--- a/Output_Backtest/Robust_Mean-Variance_cumulative_returns.xlsx
+++ b/Output_Backtest/Robust_Mean-Variance_cumulative_returns.xlsx
@@ -684,7 +684,7 @@
         <v>42338</v>
       </c>
       <c r="B38">
-        <v>0.9996884211258088</v>
+        <v>0.9996884263081308</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -692,7 +692,7 @@
         <v>42369</v>
       </c>
       <c r="B39">
-        <v>0.9874213927305526</v>
+        <v>0.9874210992391913</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -700,7 +700,7 @@
         <v>42400</v>
       </c>
       <c r="B40">
-        <v>0.9822944198700532</v>
+        <v>0.9822954883455021</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -708,7 +708,7 @@
         <v>42429</v>
       </c>
       <c r="B41">
-        <v>0.9882053694098338</v>
+        <v>0.9882064454646126</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -716,7 +716,7 @@
         <v>42460</v>
       </c>
       <c r="B42">
-        <v>1.009341183896337</v>
+        <v>1.009342596932896</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -724,7 +724,7 @@
         <v>42490</v>
       </c>
       <c r="B43">
-        <v>1.004383881959666</v>
+        <v>1.004369993087866</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -732,7 +732,7 @@
         <v>42521</v>
       </c>
       <c r="B44">
-        <v>1.008076543961843</v>
+        <v>1.008062471427</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -740,7 +740,7 @@
         <v>42551</v>
       </c>
       <c r="B45">
-        <v>1.027750689296091</v>
+        <v>1.027744723914206</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -748,7 +748,7 @@
         <v>42582</v>
       </c>
       <c r="B46">
-        <v>1.041549506230188</v>
+        <v>1.041424301632029</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -756,7 +756,7 @@
         <v>42613</v>
       </c>
       <c r="B47">
-        <v>1.038126086267842</v>
+        <v>1.037974570209112</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -764,7 +764,7 @@
         <v>42643</v>
       </c>
       <c r="B48">
-        <v>1.039403911423396</v>
+        <v>1.039266301254493</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -772,7 +772,7 @@
         <v>42674</v>
       </c>
       <c r="B49">
-        <v>1.026674656074187</v>
+        <v>1.02653723136428</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -780,7 +780,7 @@
         <v>42704</v>
       </c>
       <c r="B50">
-        <v>1.003589859480999</v>
+        <v>1.003441887981187</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -788,7 +788,7 @@
         <v>42735</v>
       </c>
       <c r="B51">
-        <v>1.010059301805637</v>
+        <v>1.009909543066375</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -796,7 +796,7 @@
         <v>42766</v>
       </c>
       <c r="B52">
-        <v>1.014781534622922</v>
+        <v>1.014630758141101</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -804,7 +804,7 @@
         <v>42794</v>
       </c>
       <c r="B53">
-        <v>1.027884867084152</v>
+        <v>1.027732200572197</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -812,7 +812,7 @@
         <v>42825</v>
       </c>
       <c r="B54">
-        <v>1.028144966929619</v>
+        <v>1.027991887992553</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -820,7 +820,7 @@
         <v>42855</v>
       </c>
       <c r="B55">
-        <v>1.039707731353491</v>
+        <v>1.039553392695383</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -828,7 +828,7 @@
         <v>42886</v>
       </c>
       <c r="B56">
-        <v>1.049336220764312</v>
+        <v>1.049180495664775</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -836,7 +836,7 @@
         <v>42916</v>
       </c>
       <c r="B57">
-        <v>1.04705293900553</v>
+        <v>1.046897764068448</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -844,7 +844,7 @@
         <v>42947</v>
       </c>
       <c r="B58">
-        <v>1.056827525117691</v>
+        <v>1.056670727972412</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -852,7 +852,7 @@
         <v>42978</v>
       </c>
       <c r="B59">
-        <v>1.063626307213024</v>
+        <v>1.063468423159707</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -860,7 +860,7 @@
         <v>43008</v>
       </c>
       <c r="B60">
-        <v>1.065635417657574</v>
+        <v>1.06547735187499</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -868,7 +868,7 @@
         <v>43039</v>
       </c>
       <c r="B61">
-        <v>1.068771306958997</v>
+        <v>1.068612569600089</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -876,7 +876,7 @@
         <v>43069</v>
       </c>
       <c r="B62">
-        <v>1.074606508422074</v>
+        <v>1.074447026527213</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -884,7 +884,7 @@
         <v>43100</v>
       </c>
       <c r="B63">
-        <v>1.076512103393756</v>
+        <v>1.076352303759935</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -892,7 +892,7 @@
         <v>43131</v>
       </c>
       <c r="B64">
-        <v>1.075758847101512</v>
+        <v>1.075598755554519</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -900,7 +900,7 @@
         <v>43159</v>
       </c>
       <c r="B65">
-        <v>1.059827494852384</v>
+        <v>1.059669973413993</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -908,7 +908,7 @@
         <v>43190</v>
       </c>
       <c r="B66">
-        <v>1.064537383154351</v>
+        <v>1.064379384267425</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -916,7 +916,7 @@
         <v>43220</v>
       </c>
       <c r="B67">
-        <v>1.058581237104875</v>
+        <v>1.058424206806161</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -924,7 +924,7 @@
         <v>43251</v>
       </c>
       <c r="B68">
-        <v>1.077868924380557</v>
+        <v>1.077708591412893</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -932,7 +932,7 @@
         <v>43281</v>
       </c>
       <c r="B69">
-        <v>1.08037379876353</v>
+        <v>1.080213161872583</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -940,7 +940,7 @@
         <v>43312</v>
       </c>
       <c r="B70">
-        <v>1.085921672516297</v>
+        <v>1.085760218954226</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -948,7 +948,7 @@
         <v>43343</v>
       </c>
       <c r="B71">
-        <v>1.102655464754611</v>
+        <v>1.102491654592616</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -956,7 +956,7 @@
         <v>43373</v>
       </c>
       <c r="B72">
-        <v>1.090552248587042</v>
+        <v>1.090390130740976</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -964,7 +964,7 @@
         <v>43404</v>
       </c>
       <c r="B73">
-        <v>1.060832693606081</v>
+        <v>1.060675171365137</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -972,7 +972,7 @@
         <v>43434</v>
       </c>
       <c r="B74">
-        <v>1.067940272932128</v>
+        <v>1.067781533181343</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -980,7 +980,7 @@
         <v>43465</v>
       </c>
       <c r="B75">
-        <v>1.052088331387242</v>
+        <v>1.051932228768495</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -988,7 +988,7 @@
         <v>43496</v>
       </c>
       <c r="B76">
-        <v>1.088463535576721</v>
+        <v>1.08830195097823</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -996,7 +996,7 @@
         <v>43524</v>
       </c>
       <c r="B77">
-        <v>1.096370177453503</v>
+        <v>1.096207470588228</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>43555</v>
       </c>
       <c r="B78">
-        <v>1.115464595912395</v>
+        <v>1.115299022516735</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1012,7 +1012,7 @@
         <v>43585</v>
       </c>
       <c r="B79">
-        <v>1.126797954638391</v>
+        <v>1.126630391229426</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>43616</v>
       </c>
       <c r="B80">
-        <v>1.112522526428642</v>
+        <v>1.112357396565491</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1028,7 +1028,7 @@
         <v>43646</v>
       </c>
       <c r="B81">
-        <v>1.139713885645154</v>
+        <v>1.139544810618059</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1036,7 +1036,7 @@
         <v>43677</v>
       </c>
       <c r="B82">
-        <v>1.141321646262224</v>
+        <v>1.141152340668142</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1044,7 +1044,7 @@
         <v>43708</v>
       </c>
       <c r="B83">
-        <v>1.159003587391469</v>
+        <v>1.158831746929729</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>43738</v>
       </c>
       <c r="B84">
-        <v>1.158459699958555</v>
+        <v>1.158287718410527</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1060,7 +1060,7 @@
         <v>43769</v>
       </c>
       <c r="B85">
-        <v>1.162996068666731</v>
+        <v>1.162823181837612</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1068,7 +1068,7 @@
         <v>43799</v>
       </c>
       <c r="B86">
-        <v>1.164932175092019</v>
+        <v>1.164758070836474</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1076,7 +1076,7 @@
         <v>43830</v>
       </c>
       <c r="B87">
-        <v>1.173788684490241</v>
+        <v>1.173613167942295</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1084,7 +1084,7 @@
         <v>43861</v>
       </c>
       <c r="B88">
-        <v>1.194914267773217</v>
+        <v>1.194733196751391</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>43890</v>
       </c>
       <c r="B89">
-        <v>1.19559210378013</v>
+        <v>1.195410667716068</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>43921</v>
       </c>
       <c r="B90">
-        <v>1.188916511934501</v>
+        <v>1.18873383097926</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1108,7 +1108,7 @@
         <v>43951</v>
       </c>
       <c r="B91">
-        <v>1.211086001289966</v>
+        <v>1.210900034526872</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1116,7 +1116,7 @@
         <v>43982</v>
       </c>
       <c r="B92">
-        <v>1.226267980467068</v>
+        <v>1.226079596821376</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1124,7 +1124,7 @@
         <v>44012</v>
       </c>
       <c r="B93">
-        <v>1.236421281213073</v>
+        <v>1.23623140233595</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1132,7 +1132,7 @@
         <v>44043</v>
       </c>
       <c r="B94">
-        <v>1.261358371310932</v>
+        <v>1.261164521036034</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1140,7 +1140,7 @@
         <v>44074</v>
       </c>
       <c r="B95">
-        <v>1.262958736998741</v>
+        <v>1.262764898949821</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>44104</v>
       </c>
       <c r="B96">
-        <v>1.254350442952998</v>
+        <v>1.254157852611896</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>44135</v>
       </c>
       <c r="B97">
-        <v>1.240143773251427</v>
+        <v>1.239953230188802</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1164,7 +1164,7 @@
         <v>44165</v>
       </c>
       <c r="B98">
-        <v>1.26775266687632</v>
+        <v>1.267558025986043</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1172,7 +1172,7 @@
         <v>44196</v>
       </c>
       <c r="B99">
-        <v>1.277993345370852</v>
+        <v>1.277797294363233</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1180,7 +1180,7 @@
         <v>44227</v>
       </c>
       <c r="B100">
-        <v>1.270912762443098</v>
+        <v>1.27071763660567</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1188,7 +1188,7 @@
         <v>44255</v>
       </c>
       <c r="B101">
-        <v>1.256818242484506</v>
+        <v>1.256625131972606</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1196,7 +1196,7 @@
         <v>44286</v>
       </c>
       <c r="B102">
-        <v>1.243718952623527</v>
+        <v>1.243527716366866</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1204,7 +1204,7 @@
         <v>44316</v>
       </c>
       <c r="B103">
-        <v>1.255890889589567</v>
+        <v>1.255698017936076</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1212,7 +1212,7 @@
         <v>44347</v>
       </c>
       <c r="B104">
-        <v>1.260499192719048</v>
+        <v>1.260305428661149</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1220,7 +1220,7 @@
         <v>44377</v>
       </c>
       <c r="B105">
-        <v>1.270901566131199</v>
+        <v>1.270706346967581</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1228,7 +1228,7 @@
         <v>44408</v>
       </c>
       <c r="B106">
-        <v>1.279124503433738</v>
+        <v>1.278927803234507</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1236,7 +1236,7 @@
         <v>44439</v>
       </c>
       <c r="B107">
-        <v>1.279523388162594</v>
+        <v>1.279326805120178</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>44469</v>
       </c>
       <c r="B108">
-        <v>1.261141779502453</v>
+        <v>1.260948087383729</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1252,7 +1252,7 @@
         <v>44500</v>
       </c>
       <c r="B109">
-        <v>1.265568690140145</v>
+        <v>1.26537430918485</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1260,7 +1260,7 @@
         <v>44530</v>
       </c>
       <c r="B110">
-        <v>1.263453694940777</v>
+        <v>1.263259643192323</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1268,7 +1268,7 @@
         <v>44561</v>
       </c>
       <c r="B111">
-        <v>1.270990898728063</v>
+        <v>1.270795601215952</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1276,7 +1276,7 @@
         <v>44592</v>
       </c>
       <c r="B112">
-        <v>1.232810732136509</v>
+        <v>1.232621270516797</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>44620</v>
       </c>
       <c r="B113">
-        <v>1.228507529907741</v>
+        <v>1.228318941059429</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>44651</v>
       </c>
       <c r="B114">
-        <v>1.2033887909659</v>
+        <v>1.203204128242486</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>44681</v>
       </c>
       <c r="B115">
-        <v>1.158980022286891</v>
+        <v>1.158802268841532</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>44712</v>
       </c>
       <c r="B116">
-        <v>1.161431106801166</v>
+        <v>1.161252958455525</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>44742</v>
       </c>
       <c r="B117">
-        <v>1.133934902406461</v>
+        <v>1.133761214957143</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1324,7 +1324,7 @@
         <v>44773</v>
       </c>
       <c r="B118">
-        <v>1.155772729824309</v>
+        <v>1.155595643197863</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1332,7 +1332,7 @@
         <v>44804</v>
       </c>
       <c r="B119">
-        <v>1.124478437238803</v>
+        <v>1.124306364176955</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1340,7 +1340,7 @@
         <v>44834</v>
       </c>
       <c r="B120">
-        <v>1.077673347204379</v>
+        <v>1.077508427627232</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1348,7 +1348,7 @@
         <v>44865</v>
       </c>
       <c r="B121">
-        <v>1.076307479205721</v>
+        <v>1.076142953288578</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1356,7 +1356,7 @@
         <v>44895</v>
       </c>
       <c r="B122">
-        <v>1.112572431438432</v>
+        <v>1.112402355684882</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1364,7 +1364,7 @@
         <v>44926</v>
       </c>
       <c r="B123">
-        <v>1.105224844046005</v>
+        <v>1.105055854731541</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1372,7 +1372,7 @@
         <v>44957</v>
       </c>
       <c r="B124">
-        <v>1.139547229044119</v>
+        <v>1.139372866954143</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1380,7 +1380,7 @@
         <v>44985</v>
       </c>
       <c r="B125">
-        <v>1.111996873756314</v>
+        <v>1.111826787457023</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1388,7 +1388,7 @@
         <v>45016</v>
       </c>
       <c r="B126">
-        <v>1.140853771506836</v>
+        <v>1.140679300491473</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1396,7 +1396,7 @@
         <v>45046</v>
       </c>
       <c r="B127">
-        <v>1.146343279934525</v>
+        <v>1.146168051936062</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1404,7 +1404,7 @@
         <v>45077</v>
       </c>
       <c r="B128">
-        <v>1.123976090702204</v>
+        <v>1.123804292208022</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1412,7 +1412,7 @@
         <v>45107</v>
       </c>
       <c r="B129">
-        <v>1.132866153448569</v>
+        <v>1.132693004657652</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1420,7 +1420,7 @@
         <v>45138</v>
       </c>
       <c r="B130">
-        <v>1.156965923395732</v>
+        <v>1.156788934303522</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1428,7 +1428,7 @@
         <v>45169</v>
       </c>
       <c r="B131">
-        <v>1.15439778351085</v>
+        <v>1.154221197502136</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1436,7 +1436,7 @@
         <v>45199</v>
       </c>
       <c r="B132">
-        <v>1.141350889598593</v>
+        <v>1.141176017707039</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1444,7 +1444,7 @@
         <v>45230</v>
       </c>
       <c r="B133">
-        <v>1.132249903724441</v>
+        <v>1.132076587042707</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1452,7 +1452,7 @@
         <v>45260</v>
       </c>
       <c r="B134">
-        <v>1.154933588835204</v>
+        <v>1.15475686461622</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1460,7 +1460,7 @@
         <v>45291</v>
       </c>
       <c r="B135">
-        <v>1.173335502241999</v>
+        <v>1.173156033516639</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1468,7 +1468,7 @@
         <v>45322</v>
       </c>
       <c r="B136">
-        <v>1.178617115603487</v>
+        <v>1.178436866227908</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1476,7 +1476,7 @@
         <v>45351</v>
       </c>
       <c r="B137">
-        <v>1.185817308517607</v>
+        <v>1.185635891934017</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1484,7 +1484,7 @@
         <v>45382</v>
       </c>
       <c r="B138">
-        <v>1.220881171162761</v>
+        <v>1.220694352552053</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1492,7 +1492,7 @@
         <v>45412</v>
       </c>
       <c r="B139">
-        <v>1.211510417221529</v>
+        <v>1.211325158767439</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1500,7 +1500,7 @@
         <v>45443</v>
       </c>
       <c r="B140">
-        <v>1.220225236768735</v>
+        <v>1.220038649004085</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1508,7 +1508,7 @@
         <v>45473</v>
       </c>
       <c r="B141">
-        <v>1.234093701660378</v>
+        <v>1.233904936441292</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1516,7 +1516,7 @@
         <v>45504</v>
       </c>
       <c r="B142">
-        <v>1.260298696843593</v>
+        <v>1.260105911118643</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1524,7 +1524,7 @@
         <v>45535</v>
       </c>
       <c r="B143">
-        <v>1.269323497539454</v>
+        <v>1.269129360042727</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1532,7 +1532,7 @@
         <v>45565</v>
       </c>
       <c r="B144">
-        <v>1.287347593874204</v>
+        <v>1.287150663503124</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1540,7 +1540,7 @@
         <v>45596</v>
       </c>
       <c r="B145">
-        <v>1.295466272771582</v>
+        <v>1.295268110882025</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1548,7 +1548,7 @@
         <v>45626</v>
       </c>
       <c r="B146">
-        <v>1.265444350268824</v>
+        <v>1.265250754319651</v>
       </c>
     </row>
   </sheetData>

--- a/Output_Backtest/Robust_Mean-Variance_cumulative_returns.xlsx
+++ b/Output_Backtest/Robust_Mean-Variance_cumulative_returns.xlsx
@@ -684,7 +684,7 @@
         <v>42338</v>
       </c>
       <c r="B38">
-        <v>0.9996884263081308</v>
+        <v>0.9996879334898374</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -692,7 +692,7 @@
         <v>42369</v>
       </c>
       <c r="B39">
-        <v>0.9874210992391913</v>
+        <v>0.9874211197096646</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -700,7 +700,7 @@
         <v>42400</v>
       </c>
       <c r="B40">
-        <v>0.9822954883455021</v>
+        <v>0.9822963291588392</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -708,7 +708,7 @@
         <v>42429</v>
       </c>
       <c r="B41">
-        <v>0.9882064454646126</v>
+        <v>0.9882071945592557</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -716,7 +716,7 @@
         <v>42460</v>
       </c>
       <c r="B42">
-        <v>1.009342596932896</v>
+        <v>1.009343241080385</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -724,7 +724,7 @@
         <v>42490</v>
       </c>
       <c r="B43">
-        <v>1.004369993087866</v>
+        <v>1.004386137412845</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -732,7 +732,7 @@
         <v>42521</v>
       </c>
       <c r="B44">
-        <v>1.008062471427</v>
+        <v>1.008078650538308</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -740,7 +740,7 @@
         <v>42551</v>
       </c>
       <c r="B45">
-        <v>1.027744723914206</v>
+        <v>1.02775935014557</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -748,7 +748,7 @@
         <v>42582</v>
       </c>
       <c r="B46">
-        <v>1.041424301632029</v>
+        <v>1.041434091788558</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -756,7 +756,7 @@
         <v>42613</v>
       </c>
       <c r="B47">
-        <v>1.037974570209112</v>
+        <v>1.037987168435418</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -764,7 +764,7 @@
         <v>42643</v>
       </c>
       <c r="B48">
-        <v>1.039266301254493</v>
+        <v>1.039263868946131</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -772,7 +772,7 @@
         <v>42674</v>
       </c>
       <c r="B49">
-        <v>1.02653723136428</v>
+        <v>1.026535757091682</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -780,7 +780,7 @@
         <v>42704</v>
       </c>
       <c r="B50">
-        <v>1.003441887981187</v>
+        <v>1.003453997189207</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -788,7 +788,7 @@
         <v>42735</v>
       </c>
       <c r="B51">
-        <v>1.009909543066375</v>
+        <v>1.009922275568743</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -796,7 +796,7 @@
         <v>42766</v>
       </c>
       <c r="B52">
-        <v>1.014630758141101</v>
+        <v>1.014644095605917</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -804,7 +804,7 @@
         <v>42794</v>
       </c>
       <c r="B53">
-        <v>1.027732200572197</v>
+        <v>1.02774510048363</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -812,7 +812,7 @@
         <v>42825</v>
       </c>
       <c r="B54">
-        <v>1.027991887992553</v>
+        <v>1.028005607326605</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -820,7 +820,7 @@
         <v>42855</v>
       </c>
       <c r="B55">
-        <v>1.039553392695383</v>
+        <v>1.039566533456937</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -828,7 +828,7 @@
         <v>42886</v>
       </c>
       <c r="B56">
-        <v>1.049180495664775</v>
+        <v>1.049194442693135</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -836,7 +836,7 @@
         <v>42916</v>
       </c>
       <c r="B57">
-        <v>1.046897764068448</v>
+        <v>1.04691131500455</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -844,7 +844,7 @@
         <v>42947</v>
       </c>
       <c r="B58">
-        <v>1.056670727972412</v>
+        <v>1.056684651539814</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -852,7 +852,7 @@
         <v>42978</v>
       </c>
       <c r="B59">
-        <v>1.063468423159707</v>
+        <v>1.063482114826589</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -860,7 +860,7 @@
         <v>43008</v>
       </c>
       <c r="B60">
-        <v>1.06547735187499</v>
+        <v>1.065491016604185</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -868,7 +868,7 @@
         <v>43039</v>
       </c>
       <c r="B61">
-        <v>1.068612569600089</v>
+        <v>1.068626286266474</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -876,7 +876,7 @@
         <v>43069</v>
       </c>
       <c r="B62">
-        <v>1.074447026527213</v>
+        <v>1.074460958532548</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -884,7 +884,7 @@
         <v>43100</v>
       </c>
       <c r="B63">
-        <v>1.076352303759935</v>
+        <v>1.076366176164836</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -892,7 +892,7 @@
         <v>43131</v>
       </c>
       <c r="B64">
-        <v>1.075598755554519</v>
+        <v>1.075612791949978</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -900,7 +900,7 @@
         <v>43159</v>
       </c>
       <c r="B65">
-        <v>1.059669973413993</v>
+        <v>1.059683985734888</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -908,7 +908,7 @@
         <v>43190</v>
       </c>
       <c r="B66">
-        <v>1.064379384267425</v>
+        <v>1.064393469975763</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -916,7 +916,7 @@
         <v>43220</v>
       </c>
       <c r="B67">
-        <v>1.058424206806161</v>
+        <v>1.058438294570447</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -924,7 +924,7 @@
         <v>43251</v>
       </c>
       <c r="B68">
-        <v>1.077708591412893</v>
+        <v>1.077723867015786</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -932,7 +932,7 @@
         <v>43281</v>
       </c>
       <c r="B69">
-        <v>1.080213161872583</v>
+        <v>1.080228309541382</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -940,7 +940,7 @@
         <v>43312</v>
       </c>
       <c r="B70">
-        <v>1.085760218954226</v>
+        <v>1.085775422939887</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -948,7 +948,7 @@
         <v>43343</v>
       </c>
       <c r="B71">
-        <v>1.102491654592616</v>
+        <v>1.102507404367039</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -956,7 +956,7 @@
         <v>43373</v>
       </c>
       <c r="B72">
-        <v>1.090390130740976</v>
+        <v>1.090405178666529</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -964,7 +964,7 @@
         <v>43404</v>
       </c>
       <c r="B73">
-        <v>1.060675171365137</v>
+        <v>1.060689641137617</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -972,7 +972,7 @@
         <v>43434</v>
       </c>
       <c r="B74">
-        <v>1.067781533181343</v>
+        <v>1.06779640643375</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -980,7 +980,7 @@
         <v>43465</v>
       </c>
       <c r="B75">
-        <v>1.051932228768495</v>
+        <v>1.051946918652959</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -988,7 +988,7 @@
         <v>43496</v>
       </c>
       <c r="B76">
-        <v>1.08830195097823</v>
+        <v>1.088317010785292</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -996,7 +996,7 @@
         <v>43524</v>
       </c>
       <c r="B77">
-        <v>1.096207470588228</v>
+        <v>1.096222873873924</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>43555</v>
       </c>
       <c r="B78">
-        <v>1.115299022516735</v>
+        <v>1.115314457765158</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1012,7 +1012,7 @@
         <v>43585</v>
       </c>
       <c r="B79">
-        <v>1.126630391229426</v>
+        <v>1.126646208998191</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>43616</v>
       </c>
       <c r="B80">
-        <v>1.112357396565491</v>
+        <v>1.112373015279742</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1028,7 +1028,7 @@
         <v>43646</v>
       </c>
       <c r="B81">
-        <v>1.139544810618059</v>
+        <v>1.139560331025743</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1036,7 +1036,7 @@
         <v>43677</v>
       </c>
       <c r="B82">
-        <v>1.141152340668142</v>
+        <v>1.141167776885075</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1044,7 +1044,7 @@
         <v>43708</v>
       </c>
       <c r="B83">
-        <v>1.158831746929729</v>
+        <v>1.158847520560615</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>43738</v>
       </c>
       <c r="B84">
-        <v>1.158287718410527</v>
+        <v>1.158303648683251</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1060,7 +1060,7 @@
         <v>43769</v>
       </c>
       <c r="B85">
-        <v>1.162823181837612</v>
+        <v>1.162839080852804</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1068,7 +1068,7 @@
         <v>43799</v>
       </c>
       <c r="B86">
-        <v>1.164758070836474</v>
+        <v>1.16477456793961</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1076,7 +1076,7 @@
         <v>43830</v>
       </c>
       <c r="B87">
-        <v>1.173613167942295</v>
+        <v>1.173630523845854</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1084,7 +1084,7 @@
         <v>43861</v>
       </c>
       <c r="B88">
-        <v>1.194733196751391</v>
+        <v>1.194162978710833</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>43890</v>
       </c>
       <c r="B89">
-        <v>1.195410667716068</v>
+        <v>1.194887333248619</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>43921</v>
       </c>
       <c r="B90">
-        <v>1.18873383097926</v>
+        <v>1.188205163086921</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1108,7 +1108,7 @@
         <v>43951</v>
       </c>
       <c r="B91">
-        <v>1.210900034526872</v>
+        <v>1.210360660263927</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1116,7 +1116,7 @@
         <v>43982</v>
       </c>
       <c r="B92">
-        <v>1.226079596821376</v>
+        <v>1.225533457901746</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1124,7 +1124,7 @@
         <v>44012</v>
       </c>
       <c r="B93">
-        <v>1.23623140233595</v>
+        <v>1.235680729493536</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1132,7 +1132,7 @@
         <v>44043</v>
       </c>
       <c r="B94">
-        <v>1.261164521036034</v>
+        <v>1.260602774128706</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1140,7 +1140,7 @@
         <v>44074</v>
       </c>
       <c r="B95">
-        <v>1.262764898949821</v>
+        <v>1.262202215414746</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>44104</v>
       </c>
       <c r="B96">
-        <v>1.254157852611896</v>
+        <v>1.253599108644663</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>44135</v>
       </c>
       <c r="B97">
-        <v>1.239953230188802</v>
+        <v>1.239400689616113</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1164,7 +1164,7 @@
         <v>44165</v>
       </c>
       <c r="B98">
-        <v>1.267558025986043</v>
+        <v>1.266992835884652</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1172,7 +1172,7 @@
         <v>44196</v>
       </c>
       <c r="B99">
-        <v>1.277797294363233</v>
+        <v>1.277227501592998</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1180,7 +1180,7 @@
         <v>44227</v>
       </c>
       <c r="B100">
-        <v>1.27071763660567</v>
+        <v>1.270151176408026</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1188,7 +1188,7 @@
         <v>44255</v>
       </c>
       <c r="B101">
-        <v>1.256625131972606</v>
+        <v>1.256064791989987</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1196,7 +1196,7 @@
         <v>44286</v>
       </c>
       <c r="B102">
-        <v>1.243527716366866</v>
+        <v>1.242973182100163</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1204,7 +1204,7 @@
         <v>44316</v>
       </c>
       <c r="B103">
-        <v>1.255698017936076</v>
+        <v>1.255137905389725</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1212,7 +1212,7 @@
         <v>44347</v>
       </c>
       <c r="B104">
-        <v>1.260305428661149</v>
+        <v>1.259743426890646</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1220,7 +1220,7 @@
         <v>44377</v>
       </c>
       <c r="B105">
-        <v>1.270706346967581</v>
+        <v>1.270139464651348</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1228,7 +1228,7 @@
         <v>44408</v>
       </c>
       <c r="B106">
-        <v>1.278927803234507</v>
+        <v>1.278357443225934</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1236,7 +1236,7 @@
         <v>44439</v>
       </c>
       <c r="B107">
-        <v>1.279326805120178</v>
+        <v>1.278756071437494</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>44469</v>
       </c>
       <c r="B108">
-        <v>1.260948087383729</v>
+        <v>1.260385776966707</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1252,7 +1252,7 @@
         <v>44500</v>
       </c>
       <c r="B109">
-        <v>1.26537430918485</v>
+        <v>1.264809890248454</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1260,7 +1260,7 @@
         <v>44530</v>
       </c>
       <c r="B110">
-        <v>1.263259643192323</v>
+        <v>1.262696219314218</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1268,7 +1268,7 @@
         <v>44561</v>
       </c>
       <c r="B111">
-        <v>1.270795601215952</v>
+        <v>1.270228917453654</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1276,7 +1276,7 @@
         <v>44592</v>
       </c>
       <c r="B112">
-        <v>1.232621270516797</v>
+        <v>1.232071571636421</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>44620</v>
       </c>
       <c r="B113">
-        <v>1.228318941059429</v>
+        <v>1.227771066901637</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>44651</v>
       </c>
       <c r="B114">
-        <v>1.203204128242486</v>
+        <v>1.202667397190532</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>44681</v>
       </c>
       <c r="B115">
-        <v>1.158802268841532</v>
+        <v>1.158285186878286</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>44712</v>
       </c>
       <c r="B116">
-        <v>1.161252958455525</v>
+        <v>1.160734754319724</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>44742</v>
       </c>
       <c r="B117">
-        <v>1.133761214957143</v>
+        <v>1.13325522075176</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1324,7 +1324,7 @@
         <v>44773</v>
       </c>
       <c r="B118">
-        <v>1.155595643197863</v>
+        <v>1.155080075981062</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1332,7 +1332,7 @@
         <v>44804</v>
       </c>
       <c r="B119">
-        <v>1.124306364176955</v>
+        <v>1.123804587348897</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1340,7 +1340,7 @@
         <v>44834</v>
       </c>
       <c r="B120">
-        <v>1.077508427627232</v>
+        <v>1.077027479185001</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1348,7 +1348,7 @@
         <v>44865</v>
       </c>
       <c r="B121">
-        <v>1.076142953288578</v>
+        <v>1.075662673130189</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1356,7 +1356,7 @@
         <v>44895</v>
       </c>
       <c r="B122">
-        <v>1.112402355684882</v>
+        <v>1.111905866012153</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1364,7 +1364,7 @@
         <v>44926</v>
       </c>
       <c r="B123">
-        <v>1.105055854731541</v>
+        <v>1.104562703200357</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1372,7 +1372,7 @@
         <v>44957</v>
       </c>
       <c r="B124">
-        <v>1.139372866954143</v>
+        <v>1.138864480622589</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1380,7 +1380,7 @@
         <v>44985</v>
       </c>
       <c r="B125">
-        <v>1.111826787457023</v>
+        <v>1.111330477788956</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1388,7 +1388,7 @@
         <v>45016</v>
       </c>
       <c r="B126">
-        <v>1.140679300491473</v>
+        <v>1.140170202383624</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1396,7 +1396,7 @@
         <v>45046</v>
       </c>
       <c r="B127">
-        <v>1.146168051936062</v>
+        <v>1.145656303771261</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1404,7 +1404,7 @@
         <v>45077</v>
       </c>
       <c r="B128">
-        <v>1.123804292208022</v>
+        <v>1.123302421882754</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1412,7 +1412,7 @@
         <v>45107</v>
       </c>
       <c r="B129">
-        <v>1.132693004657652</v>
+        <v>1.13218735238093</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1420,7 +1420,7 @@
         <v>45138</v>
       </c>
       <c r="B130">
-        <v>1.156788934303522</v>
+        <v>1.156272675040815</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1428,7 +1428,7 @@
         <v>45169</v>
       </c>
       <c r="B131">
-        <v>1.154221197502136</v>
+        <v>1.153706084019351</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1436,7 +1436,7 @@
         <v>45199</v>
       </c>
       <c r="B132">
-        <v>1.141176017707039</v>
+        <v>1.140666980010583</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1444,7 +1444,7 @@
         <v>45230</v>
       </c>
       <c r="B133">
-        <v>1.132076587042707</v>
+        <v>1.131571413242422</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1452,7 +1452,7 @@
         <v>45260</v>
       </c>
       <c r="B134">
-        <v>1.15475686461622</v>
+        <v>1.154241565378178</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1460,7 +1460,7 @@
         <v>45291</v>
       </c>
       <c r="B135">
-        <v>1.173156033516639</v>
+        <v>1.172632402896937</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1468,7 +1468,7 @@
         <v>45322</v>
       </c>
       <c r="B136">
-        <v>1.178436866227908</v>
+        <v>1.177910921412788</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1476,7 +1476,7 @@
         <v>45351</v>
       </c>
       <c r="B137">
-        <v>1.185635891934017</v>
+        <v>1.185106686569016</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1484,7 +1484,7 @@
         <v>45382</v>
       </c>
       <c r="B138">
-        <v>1.220694352552053</v>
+        <v>1.220149556543012</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1492,7 +1492,7 @@
         <v>45412</v>
       </c>
       <c r="B139">
-        <v>1.211325158767439</v>
+        <v>1.210784527360536</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1500,7 +1500,7 @@
         <v>45443</v>
       </c>
       <c r="B140">
-        <v>1.220038649004085</v>
+        <v>1.219494113784134</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1508,7 +1508,7 @@
         <v>45473</v>
       </c>
       <c r="B141">
-        <v>1.233904936441292</v>
+        <v>1.233354226786829</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1516,7 +1516,7 @@
         <v>45504</v>
       </c>
       <c r="B142">
-        <v>1.260105911118643</v>
+        <v>1.259543523374158</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1524,7 +1524,7 @@
         <v>45535</v>
       </c>
       <c r="B143">
-        <v>1.269129360042727</v>
+        <v>1.268562946288153</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1532,7 +1532,7 @@
         <v>45565</v>
       </c>
       <c r="B144">
-        <v>1.287150663503124</v>
+        <v>1.286874545181954</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1540,7 +1540,7 @@
         <v>45596</v>
       </c>
       <c r="B145">
-        <v>1.295268110882025</v>
+        <v>1.294900454529685</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1548,7 +1548,7 @@
         <v>45626</v>
       </c>
       <c r="B146">
-        <v>1.265250754319651</v>
+        <v>1.276462116826995</v>
       </c>
     </row>
   </sheetData>
